--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col9a2-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col9a2-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Col9a2</t>
+  </si>
+  <si>
+    <t>Mag</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Col9a2</t>
-  </si>
-  <si>
-    <t>Mag</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5218163333333333</v>
+        <v>0.04621466666666666</v>
       </c>
       <c r="H2">
-        <v>1.565449</v>
+        <v>0.138644</v>
       </c>
       <c r="I2">
-        <v>0.9834142768387242</v>
+        <v>0.07329010976812046</v>
       </c>
       <c r="J2">
-        <v>0.9834142768387242</v>
+        <v>0.07329010976812045</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N2">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O2">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P2">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q2">
-        <v>0.4895418191778889</v>
+        <v>0.010765567956</v>
       </c>
       <c r="R2">
-        <v>4.405876372601001</v>
+        <v>0.096890111604</v>
       </c>
       <c r="S2">
-        <v>0.5343024152818728</v>
+        <v>0.01885182726226051</v>
       </c>
       <c r="T2">
-        <v>0.5343024152818728</v>
+        <v>0.01885182726226051</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5218163333333333</v>
+        <v>0.04621466666666666</v>
       </c>
       <c r="H3">
-        <v>1.565449</v>
+        <v>0.138644</v>
       </c>
       <c r="I3">
-        <v>0.9834142768387242</v>
+        <v>0.07329010976812046</v>
       </c>
       <c r="J3">
-        <v>0.9834142768387242</v>
+        <v>0.07329010976812045</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N3">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O3">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P3">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q3">
-        <v>0.4114880102215556</v>
+        <v>0.03108765116355555</v>
       </c>
       <c r="R3">
-        <v>3.703392091994001</v>
+        <v>0.279788860472</v>
       </c>
       <c r="S3">
-        <v>0.4491118615568513</v>
+        <v>0.05443828250585996</v>
       </c>
       <c r="T3">
-        <v>0.4491118615568512</v>
+        <v>0.05443828250585994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G4">
-        <v>0.008800666666666667</v>
+        <v>0.5218163333333333</v>
       </c>
       <c r="H4">
-        <v>0.026402</v>
+        <v>1.565449</v>
       </c>
       <c r="I4">
-        <v>0.01658572316127577</v>
+        <v>0.8275289882461153</v>
       </c>
       <c r="J4">
-        <v>0.01658572316127577</v>
+        <v>0.8275289882461153</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N4">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O4">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P4">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q4">
-        <v>0.008256342499777778</v>
+        <v>0.121555549401</v>
       </c>
       <c r="R4">
-        <v>0.074307082498</v>
+        <v>1.093999944609</v>
       </c>
       <c r="S4">
-        <v>0.009011250042813283</v>
+        <v>0.2128586461432046</v>
       </c>
       <c r="T4">
-        <v>0.009011250042813279</v>
+        <v>0.2128586461432046</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +708,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G5">
-        <v>0.008800666666666667</v>
+        <v>0.5218163333333333</v>
       </c>
       <c r="H5">
-        <v>0.026402</v>
+        <v>1.565449</v>
       </c>
       <c r="I5">
-        <v>0.01658572316127577</v>
+        <v>0.8275289882461153</v>
       </c>
       <c r="J5">
-        <v>0.01658572316127577</v>
+        <v>0.8275289882461153</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +741,152 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N5">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O5">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P5">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q5">
-        <v>0.006939929979111113</v>
+        <v>0.3510150632291111</v>
       </c>
       <c r="R5">
-        <v>0.062459369812</v>
+        <v>3.159135569062</v>
       </c>
       <c r="S5">
-        <v>0.007574473118462492</v>
+        <v>0.6146703421029107</v>
       </c>
       <c r="T5">
-        <v>0.007574473118462489</v>
+        <v>0.6146703421029107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.06254066666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.187622</v>
+      </c>
+      <c r="I6">
+        <v>0.09918090198576426</v>
+      </c>
+      <c r="J6">
+        <v>0.09918090198576425</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.232947</v>
+      </c>
+      <c r="N6">
+        <v>0.698841</v>
+      </c>
+      <c r="O6">
+        <v>0.2572219815457369</v>
+      </c>
+      <c r="P6">
+        <v>0.2572219815457369</v>
+      </c>
+      <c r="Q6">
+        <v>0.014568660678</v>
+      </c>
+      <c r="R6">
+        <v>0.131117946102</v>
+      </c>
+      <c r="S6">
+        <v>0.02551150814027179</v>
+      </c>
+      <c r="T6">
+        <v>0.02551150814027179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.06254066666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.187622</v>
+      </c>
+      <c r="I7">
+        <v>0.09918090198576426</v>
+      </c>
+      <c r="J7">
+        <v>0.09918090198576425</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.6726793333333333</v>
+      </c>
+      <c r="N7">
+        <v>2.018038</v>
+      </c>
+      <c r="O7">
+        <v>0.7427780184542632</v>
+      </c>
+      <c r="P7">
+        <v>0.7427780184542632</v>
+      </c>
+      <c r="Q7">
+        <v>0.04206981395955556</v>
+      </c>
+      <c r="R7">
+        <v>0.378628325636</v>
+      </c>
+      <c r="S7">
+        <v>0.07366939384549248</v>
+      </c>
+      <c r="T7">
+        <v>0.07366939384549247</v>
       </c>
     </row>
   </sheetData>
